--- a/TestData/CaseFileUpload.xlsx
+++ b/TestData/CaseFileUpload.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\ashitosh\ComplianceLatest\ComplianceLatest\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Snehal\ComplianceLatest\ComplianceLatest\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5F2EE7-0E00-4773-8C3B-6745E4FD5B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2781BA15-1971-4CC7-B3BE-D26F78660271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Court Cases" sheetId="1" r:id="rId1"/>
@@ -271,12 +271,6 @@
     <t>LawFirm(Name of Law firm)</t>
   </si>
   <si>
-    <t>New Automate test 4578895</t>
-  </si>
-  <si>
-    <t>Case No 01250250345</t>
-  </si>
-  <si>
     <t>Case Order Test Automate</t>
   </si>
   <si>
@@ -284,18 +278,6 @@
   </si>
   <si>
     <t>22-jan-2023</t>
-  </si>
-  <si>
-    <t>C599829</t>
-  </si>
-  <si>
-    <t>10-jan-2023</t>
-  </si>
-  <si>
-    <t>Hearing of 10-Jan-2023</t>
-  </si>
-  <si>
-    <t>18/5/2023</t>
   </si>
   <si>
     <t>2022-2023</t>
@@ -307,6 +289,24 @@
   <si>
     <t xml:space="preserve">	
 reviewer@gmail.com</t>
+  </si>
+  <si>
+    <t>C58029</t>
+  </si>
+  <si>
+    <t>Hearing of 19-Feb-2023</t>
+  </si>
+  <si>
+    <t>19-Feb-2023</t>
+  </si>
+  <si>
+    <t>18/8/2023</t>
+  </si>
+  <si>
+    <t>New Automate test test</t>
+  </si>
+  <si>
+    <t>10-feb-2023</t>
   </si>
 </sst>
 </file>
@@ -965,8 +965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AF2" sqref="AF2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1134,7 +1134,7 @@
         <v>68</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="10" t="s">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="Q2" s="10"/>
       <c r="R2" s="11" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="S2" s="10" t="s">
         <v>64</v>
@@ -1187,7 +1187,7 @@
         <v>73</v>
       </c>
       <c r="AF2" s="11" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="AG2" s="10"/>
       <c r="AH2" s="10" t="s">
@@ -1204,7 +1204,7 @@
       </c>
       <c r="AL2" s="10"/>
       <c r="AM2" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1218,7 +1218,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1262,10 +1262,10 @@
     </row>
     <row r="2" spans="1:8" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C2" s="39" t="s">
         <v>50</v>
@@ -1276,7 +1276,7 @@
         <v>83</v>
       </c>
       <c r="G2" s="41" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H2" s="25"/>
     </row>
@@ -1305,7 +1305,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D15:D16"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1341,19 +1341,19 @@
     </row>
     <row r="2" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>44</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D2" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>76</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>78</v>
       </c>
       <c r="F2" s="15"/>
     </row>
@@ -1367,8 +1367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1415,17 +1415,17 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>56</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F2" s="21">
         <v>457657</v>

--- a/TestData/CaseFileUpload.xlsx
+++ b/TestData/CaseFileUpload.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Snehal\ComplianceLatest\ComplianceLatest\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2781BA15-1971-4CC7-B3BE-D26F78660271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F88E81-B4EF-4C6E-9C24-2F49A9FA595F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Court Cases" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="88">
   <si>
     <t>Type of Case
 (Defendant / Plaintiff)</t>
@@ -265,48 +265,48 @@
     <t>abc firm</t>
   </si>
   <si>
-    <t>F Pvt LTd</t>
-  </si>
-  <si>
     <t>LawFirm(Name of Law firm)</t>
   </si>
   <si>
     <t>Case Order Test Automate</t>
   </si>
   <si>
-    <t>Invoice no5998245</t>
-  </si>
-  <si>
     <t>22-jan-2023</t>
   </si>
   <si>
-    <t>2022-2023</t>
+    <t>New Automate test test</t>
+  </si>
+  <si>
+    <t>25-02-2023</t>
+  </si>
+  <si>
+    <t>2023-2024</t>
+  </si>
+  <si>
+    <t>20-feb-2023</t>
+  </si>
+  <si>
+    <t>Invoice no58245</t>
   </si>
   <si>
     <t xml:space="preserve">	
-reviewer@gmail.com</t>
+kssharma021@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">	
-reviewer@gmail.com</t>
-  </si>
-  <si>
-    <t>C58029</t>
-  </si>
-  <si>
-    <t>Hearing of 19-Feb-2023</t>
-  </si>
-  <si>
-    <t>19-Feb-2023</t>
-  </si>
-  <si>
-    <t>18/8/2023</t>
-  </si>
-  <si>
-    <t>New Automate test test</t>
-  </si>
-  <si>
-    <t>10-feb-2023</t>
+kssharma021@gmail.com</t>
+  </si>
+  <si>
+    <t>Bihar</t>
+  </si>
+  <si>
+    <t>Caseno45678hg</t>
+  </si>
+  <si>
+    <t>28-02-2023</t>
+  </si>
+  <si>
+    <t>Hearing of 25-Feb-2023</t>
   </si>
 </sst>
 </file>
@@ -579,7 +579,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -965,8 +965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM2"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1134,7 +1134,7 @@
         <v>68</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="10" t="s">
@@ -1159,7 +1159,7 @@
         <v>69</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="O2" s="10"/>
       <c r="P2" s="10" t="s">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="Q2" s="10"/>
       <c r="R2" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="S2" s="10" t="s">
         <v>64</v>
@@ -1187,7 +1187,7 @@
         <v>73</v>
       </c>
       <c r="AF2" s="11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AG2" s="10"/>
       <c r="AH2" s="10" t="s">
@@ -1196,8 +1196,8 @@
       <c r="AI2" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="AJ2" s="32">
-        <v>44937</v>
+      <c r="AJ2" s="32" t="s">
+        <v>78</v>
       </c>
       <c r="AK2" s="10" t="s">
         <v>36</v>
@@ -1218,7 +1218,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1242,7 +1242,7 @@
         <v>58</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D1" s="36" t="s">
         <v>59</v>
@@ -1262,10 +1262,10 @@
     </row>
     <row r="2" spans="1:8" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C2" s="39" t="s">
         <v>50</v>
@@ -1273,10 +1273,10 @@
       <c r="D2" s="23"/>
       <c r="E2" s="24"/>
       <c r="F2" s="33" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G2" s="41" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H2" s="25"/>
     </row>
@@ -1341,19 +1341,19 @@
     </row>
     <row r="2" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>44</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F2" s="15"/>
     </row>
@@ -1367,8 +1367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1415,17 +1415,17 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="20" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>56</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F2" s="21">
         <v>457657</v>

--- a/TestData/CaseFileUpload.xlsx
+++ b/TestData/CaseFileUpload.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Snehal\ComplianceLatest\ComplianceLatest\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F88E81-B4EF-4C6E-9C24-2F49A9FA595F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B41AF6-9E7C-4CB0-91BC-B17994F62DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Court Cases" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="89">
   <si>
     <t>Type of Case
 (Defendant / Plaintiff)</t>
@@ -268,25 +268,7 @@
     <t>LawFirm(Name of Law firm)</t>
   </si>
   <si>
-    <t>Case Order Test Automate</t>
-  </si>
-  <si>
-    <t>22-jan-2023</t>
-  </si>
-  <si>
-    <t>New Automate test test</t>
-  </si>
-  <si>
-    <t>25-02-2023</t>
-  </si>
-  <si>
     <t>2023-2024</t>
-  </si>
-  <si>
-    <t>20-feb-2023</t>
-  </si>
-  <si>
-    <t>Invoice no58245</t>
   </si>
   <si>
     <t xml:space="preserve">	
@@ -297,16 +279,37 @@
 kssharma021@gmail.com</t>
   </si>
   <si>
-    <t>Bihar</t>
-  </si>
-  <si>
-    <t>Caseno45678hg</t>
-  </si>
-  <si>
-    <t>28-02-2023</t>
-  </si>
-  <si>
-    <t>Hearing of 25-Feb-2023</t>
+    <t>12-feb-2023</t>
+  </si>
+  <si>
+    <t>18-feb-2023</t>
+  </si>
+  <si>
+    <t>Hearingof 25-Feb-2023</t>
+  </si>
+  <si>
+    <t>A/Bita Pharma Company</t>
+  </si>
+  <si>
+    <t>25-03-2023</t>
+  </si>
+  <si>
+    <t>caseno0310453</t>
+  </si>
+  <si>
+    <t>New  test automate order test</t>
+  </si>
+  <si>
+    <t>Case Order Test Automate Order test</t>
+  </si>
+  <si>
+    <t>invoice no90310453</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12-Apr-2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12-May-2023</t>
   </si>
 </sst>
 </file>
@@ -965,7 +968,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1134,7 +1137,7 @@
         <v>68</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="10" t="s">
@@ -1159,7 +1162,7 @@
         <v>69</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="O2" s="10"/>
       <c r="P2" s="10" t="s">
@@ -1167,7 +1170,7 @@
       </c>
       <c r="Q2" s="10"/>
       <c r="R2" s="11" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="S2" s="10" t="s">
         <v>64</v>
@@ -1187,7 +1190,7 @@
         <v>73</v>
       </c>
       <c r="AF2" s="11" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AG2" s="10"/>
       <c r="AH2" s="10" t="s">
@@ -1197,14 +1200,14 @@
         <v>35</v>
       </c>
       <c r="AJ2" s="32" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="AK2" s="10" t="s">
         <v>36</v>
       </c>
       <c r="AL2" s="10"/>
       <c r="AM2" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1218,7 +1221,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1262,7 +1265,7 @@
     </row>
     <row r="2" spans="1:8" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B2" s="40" t="s">
         <v>87</v>
@@ -1273,10 +1276,10 @@
       <c r="D2" s="23"/>
       <c r="E2" s="24"/>
       <c r="F2" s="33" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G2" s="41" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H2" s="25"/>
     </row>
@@ -1341,19 +1344,19 @@
     </row>
     <row r="2" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>44</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="F2" s="15"/>
     </row>
@@ -1367,8 +1370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1415,17 +1418,17 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>56</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F2" s="21">
         <v>457657</v>

--- a/TestData/CaseFileUpload.xlsx
+++ b/TestData/CaseFileUpload.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Snehal\ComplianceLatest\ComplianceLatest\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B41AF6-9E7C-4CB0-91BC-B17994F62DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B07DF73-F6DA-48DC-AE0F-6C68F8E1167A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Case Orders" sheetId="3" r:id="rId3"/>
     <sheet name="Case Payments" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="86">
   <si>
     <t>Type of Case
 (Defendant / Plaintiff)</t>
@@ -186,9 +186,6 @@
   </si>
   <si>
     <t>Next Hearing Date</t>
-  </si>
-  <si>
-    <t>Arth Associates</t>
   </si>
   <si>
     <t>Amount Excluding Tax</t>
@@ -244,72 +241,65 @@
     <t>Entity/Sub Entity/Location/Region</t>
   </si>
   <si>
-    <t>Applicant</t>
-  </si>
-  <si>
-    <t>01-Sep-2022</t>
-  </si>
-  <si>
     <t>Case for Tax</t>
   </si>
   <si>
     <t xml:space="preserve">  Delhi Value Added Tax Act, 2004 </t>
   </si>
   <si>
-    <t>Abcde</t>
-  </si>
-  <si>
     <t>2nd  Magistrate Court,Alipore</t>
   </si>
   <si>
-    <t>abc firm</t>
-  </si>
-  <si>
     <t>LawFirm(Name of Law firm)</t>
   </si>
   <si>
     <t>2023-2024</t>
   </si>
   <si>
+    <t>12-feb-2023</t>
+  </si>
+  <si>
+    <t>18-feb-2023</t>
+  </si>
+  <si>
+    <t>25-03-2023</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>Defendant</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17-apr-2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17-Jun-2023</t>
+  </si>
+  <si>
+    <t>Hearingof 26-Feb-2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12-apr-2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		</t>
+  </si>
+  <si>
     <t xml:space="preserve">	
-kssharma021@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	
-kssharma021@gmail.com</t>
-  </si>
-  <si>
-    <t>12-feb-2023</t>
-  </si>
-  <si>
-    <t>18-feb-2023</t>
-  </si>
-  <si>
-    <t>Hearingof 25-Feb-2023</t>
-  </si>
-  <si>
-    <t>A/Bita Pharma Company</t>
-  </si>
-  <si>
-    <t>25-03-2023</t>
-  </si>
-  <si>
-    <t>caseno0310453</t>
-  </si>
-  <si>
-    <t>New  test automate order test</t>
-  </si>
-  <si>
-    <t>Case Order Test Automate Order test</t>
-  </si>
-  <si>
-    <t>invoice no90310453</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12-Apr-2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12-May-2023</t>
+performer@avantis.info</t>
+  </si>
+  <si>
+    <t>A pvt ltd</t>
+  </si>
+  <si>
+    <t>MrSawant,</t>
+  </si>
+  <si>
+    <t>Order date 27042023</t>
+  </si>
+  <si>
+    <t>Order date 01JUN2023</t>
   </si>
 </sst>
 </file>
@@ -968,8 +958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM2"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="R1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1015,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1051,7 +1041,7 @@
         <v>11</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O1" s="5" t="s">
         <v>12</v>
@@ -1060,7 +1050,7 @@
         <v>13</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>14</v>
@@ -1105,10 +1095,10 @@
         <v>27</v>
       </c>
       <c r="AF1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG1" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="AG1" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>28</v>
@@ -1117,7 +1107,7 @@
         <v>29</v>
       </c>
       <c r="AJ1" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AK1" s="6" t="s">
         <v>30</v>
@@ -1131,38 +1121,40 @@
     </row>
     <row r="2" spans="1:39" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>83</v>
+        <v>76</v>
+      </c>
+      <c r="C2" s="10">
+        <v>9241057</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" s="10"/>
+        <v>67</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>77</v>
+      </c>
       <c r="H2" s="10" t="s">
         <v>33</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="L2" s="10"/>
       <c r="M2" s="10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O2" s="10"/>
       <c r="P2" s="10" t="s">
@@ -1170,10 +1162,10 @@
       </c>
       <c r="Q2" s="10"/>
       <c r="R2" s="11" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="S2" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T2" s="10"/>
       <c r="U2" s="10"/>
@@ -1187,10 +1179,10 @@
       <c r="AC2" s="10"/>
       <c r="AD2" s="10"/>
       <c r="AE2" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AF2" s="11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AG2" s="10"/>
       <c r="AH2" s="10" t="s">
@@ -1200,14 +1192,14 @@
         <v>35</v>
       </c>
       <c r="AJ2" s="32" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="AK2" s="10" t="s">
         <v>36</v>
       </c>
       <c r="AL2" s="10"/>
       <c r="AM2" s="10" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1221,7 +1213,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1231,7 +1223,7 @@
     <col min="3" max="3" width="31.44140625" style="13" customWidth="1"/>
     <col min="4" max="4" width="30.44140625" customWidth="1"/>
     <col min="5" max="5" width="27.88671875" style="13" customWidth="1"/>
-    <col min="6" max="6" width="34.33203125" customWidth="1"/>
+    <col min="6" max="6" width="46.6640625" customWidth="1"/>
     <col min="7" max="7" width="24.21875" customWidth="1"/>
     <col min="8" max="8" width="35.88671875" customWidth="1"/>
     <col min="9" max="1022" width="8.5546875" customWidth="1"/>
@@ -1242,13 +1234,13 @@
         <v>47</v>
       </c>
       <c r="B1" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="36" t="s">
         <v>58</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>59</v>
       </c>
       <c r="E1" s="37" t="s">
         <v>48</v>
@@ -1264,22 +1256,22 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="33" t="s">
-        <v>83</v>
+      <c r="A2" s="33">
+        <v>9241057</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" s="39" t="s">
-        <v>50</v>
+        <v>79</v>
+      </c>
+      <c r="C2" s="39">
+        <v>142435</v>
       </c>
       <c r="D2" s="23"/>
       <c r="E2" s="24"/>
       <c r="F2" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="41" t="s">
         <v>80</v>
-      </c>
-      <c r="G2" s="41" t="s">
-        <v>88</v>
       </c>
       <c r="H2" s="25"/>
     </row>
@@ -1308,7 +1300,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1330,7 +1322,7 @@
         <v>40</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>41</v>
@@ -1343,26 +1335,26 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
-        <v>83</v>
+      <c r="A2" s="16">
+        <v>9241057</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>44</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D2" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>84</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>85</v>
       </c>
       <c r="F2" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1371,7 +1363,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1392,7 +1384,7 @@
         <v>45</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>37</v>
@@ -1401,34 +1393,34 @@
         <v>46</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="H1" s="28" t="s">
         <v>52</v>
-      </c>
-      <c r="H1" s="28" t="s">
-        <v>53</v>
       </c>
       <c r="I1" s="28" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
-        <v>86</v>
+      <c r="A2" s="19">
+        <v>9241057</v>
       </c>
       <c r="B2" s="19"/>
-      <c r="C2" s="20" t="s">
-        <v>83</v>
+      <c r="C2" s="20">
+        <v>11654789760</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F2" s="21">
         <v>457657</v>

--- a/TestData/CaseFileUpload.xlsx
+++ b/TestData/CaseFileUpload.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Snehal\ComplianceLatest\ComplianceLatest\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Snehal\ComplianceLatest\Litigation-Project-main (1)\Litigation-Project-main\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B07DF73-F6DA-48DC-AE0F-6C68F8E1167A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Court Cases" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="Case Orders" sheetId="3" r:id="rId3"/>
     <sheet name="Case Payments" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -299,13 +298,13 @@
     <t>Order date 27042023</t>
   </si>
   <si>
-    <t>Order date 01JUN2023</t>
+    <t>Order date 21JUN2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-14009]dd/mm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="d\ mmm\ yy"/>
@@ -955,52 +954,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM2"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S28" sqref="S28"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" customWidth="1"/>
-    <col min="3" max="3" width="20.88671875" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" customWidth="1"/>
-    <col min="5" max="5" width="22.109375" customWidth="1"/>
-    <col min="6" max="6" width="32.44140625" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" customWidth="1"/>
-    <col min="8" max="8" width="18.5546875" customWidth="1"/>
-    <col min="9" max="9" width="26.88671875" customWidth="1"/>
-    <col min="10" max="10" width="32.88671875" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="32.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" customWidth="1"/>
+    <col min="9" max="9" width="26.85546875" customWidth="1"/>
+    <col min="10" max="10" width="32.85546875" customWidth="1"/>
     <col min="11" max="11" width="29" customWidth="1"/>
     <col min="12" max="12" width="26" customWidth="1"/>
-    <col min="13" max="13" width="56.5546875" customWidth="1"/>
-    <col min="14" max="14" width="21.88671875" customWidth="1"/>
-    <col min="15" max="16" width="17.88671875" customWidth="1"/>
-    <col min="17" max="17" width="25.88671875" customWidth="1"/>
-    <col min="18" max="18" width="25.6640625" customWidth="1"/>
-    <col min="19" max="19" width="15.6640625" customWidth="1"/>
-    <col min="20" max="25" width="14.44140625" customWidth="1"/>
-    <col min="26" max="26" width="20.33203125" customWidth="1"/>
-    <col min="27" max="27" width="12.44140625" customWidth="1"/>
-    <col min="28" max="28" width="13.109375" customWidth="1"/>
+    <col min="13" max="13" width="56.5703125" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" customWidth="1"/>
+    <col min="15" max="16" width="17.85546875" customWidth="1"/>
+    <col min="17" max="17" width="25.85546875" customWidth="1"/>
+    <col min="18" max="18" width="25.7109375" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" customWidth="1"/>
+    <col min="20" max="25" width="14.42578125" customWidth="1"/>
+    <col min="26" max="26" width="20.28515625" customWidth="1"/>
+    <col min="27" max="27" width="12.42578125" customWidth="1"/>
+    <col min="28" max="28" width="13.140625" customWidth="1"/>
     <col min="29" max="29" width="15" customWidth="1"/>
-    <col min="30" max="30" width="14.44140625" customWidth="1"/>
-    <col min="31" max="31" width="19.88671875" customWidth="1"/>
-    <col min="32" max="32" width="25.88671875" customWidth="1"/>
+    <col min="30" max="30" width="14.42578125" customWidth="1"/>
+    <col min="31" max="31" width="19.85546875" customWidth="1"/>
+    <col min="32" max="32" width="25.85546875" customWidth="1"/>
     <col min="33" max="33" width="23" customWidth="1"/>
-    <col min="34" max="34" width="15.5546875" customWidth="1"/>
-    <col min="35" max="35" width="13.109375" customWidth="1"/>
-    <col min="36" max="36" width="21.5546875" customWidth="1"/>
+    <col min="34" max="34" width="15.5703125" customWidth="1"/>
+    <col min="35" max="35" width="13.140625" customWidth="1"/>
+    <col min="36" max="36" width="21.5703125" customWidth="1"/>
     <col min="37" max="37" width="16" customWidth="1"/>
-    <col min="38" max="38" width="11.5546875" customWidth="1"/>
-    <col min="39" max="39" width="12.44140625" customWidth="1"/>
-    <col min="40" max="1024" width="8.5546875" customWidth="1"/>
+    <col min="38" max="38" width="11.5703125" customWidth="1"/>
+    <col min="39" max="39" width="12.42578125" customWidth="1"/>
+    <col min="40" max="1024" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1119,7 +1118,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:39" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>75</v>
       </c>
@@ -1127,7 +1126,7 @@
         <v>76</v>
       </c>
       <c r="C2" s="10">
-        <v>9241057</v>
+        <v>9805</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="10" t="s">
@@ -1209,27 +1208,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S28" sqref="S28"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.21875" customWidth="1"/>
-    <col min="2" max="2" width="28.109375" style="27" customWidth="1"/>
-    <col min="3" max="3" width="31.44140625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="30.44140625" customWidth="1"/>
-    <col min="5" max="5" width="27.88671875" style="13" customWidth="1"/>
-    <col min="6" max="6" width="46.6640625" customWidth="1"/>
-    <col min="7" max="7" width="24.21875" customWidth="1"/>
-    <col min="8" max="8" width="35.88671875" customWidth="1"/>
-    <col min="9" max="1022" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="32.28515625" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" style="27" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" style="13" customWidth="1"/>
+    <col min="6" max="6" width="46.7109375" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" customWidth="1"/>
+    <col min="8" max="8" width="35.85546875" customWidth="1"/>
+    <col min="9" max="1022" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>47</v>
       </c>
@@ -1255,9 +1254,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33">
-        <v>9241057</v>
+        <v>9805</v>
       </c>
       <c r="B2" s="40" t="s">
         <v>79</v>
@@ -1275,14 +1274,14 @@
       </c>
       <c r="H2" s="25"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3"/>
       <c r="E3" s="27"/>
       <c r="F3" s="13"/>
       <c r="G3" s="26"/>
       <c r="H3" s="13"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4"/>
       <c r="E4" s="27"/>
       <c r="F4" s="13"/>
@@ -1296,25 +1295,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" style="27" customWidth="1"/>
-    <col min="4" max="4" width="34.5546875" style="13" customWidth="1"/>
-    <col min="5" max="5" width="38.88671875" style="13" customWidth="1"/>
-    <col min="6" max="6" width="38.5546875" style="13" customWidth="1"/>
-    <col min="7" max="1025" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="27" customWidth="1"/>
+    <col min="4" max="4" width="34.5703125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="38.85546875" style="13" customWidth="1"/>
+    <col min="6" max="6" width="38.5703125" style="13" customWidth="1"/>
+    <col min="7" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="14" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="14" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
@@ -1334,9 +1333,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
-        <v>9241057</v>
+        <v>9805</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>44</v>
@@ -1359,27 +1358,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="23.5546875" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" customWidth="1"/>
-    <col min="4" max="4" width="40.109375" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" style="27" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" customWidth="1"/>
-    <col min="7" max="7" width="33.5546875" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" customWidth="1"/>
-    <col min="10" max="1026" width="8.5546875" customWidth="1"/>
+    <col min="1" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" customWidth="1"/>
+    <col min="4" max="4" width="40.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" style="27" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="33.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" customWidth="1"/>
+    <col min="10" max="1026" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="31" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="31" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>45</v>
       </c>
@@ -1408,13 +1407,13 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="19">
         <v>9241057</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="20">
-        <v>11654789760</v>
+        <v>9805</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>55</v>

--- a/TestData/CaseFileUpload.xlsx
+++ b/TestData/CaseFileUpload.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Court Cases" sheetId="1" r:id="rId1"/>
@@ -295,10 +295,10 @@
     <t>MrSawant,</t>
   </si>
   <si>
-    <t>Order date 27042023</t>
-  </si>
-  <si>
-    <t>Order date 21JUN2023</t>
+    <t>Order date 28JUN2023</t>
+  </si>
+  <si>
+    <t>Order date 28042023</t>
   </si>
 </sst>
 </file>
@@ -957,7 +957,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1126,7 +1126,7 @@
         <v>76</v>
       </c>
       <c r="C2" s="10">
-        <v>9805</v>
+        <v>45654</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="10" t="s">
@@ -1196,7 +1196,9 @@
       <c r="AK2" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="AL2" s="10"/>
+      <c r="AL2" s="10">
+        <v>4000</v>
+      </c>
       <c r="AM2" s="10" t="s">
         <v>70</v>
       </c>
@@ -1256,7 +1258,7 @@
     </row>
     <row r="2" spans="1:8" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33">
-        <v>9805</v>
+        <v>45654</v>
       </c>
       <c r="B2" s="40" t="s">
         <v>79</v>
@@ -1299,7 +1301,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1335,7 +1337,7 @@
     </row>
     <row r="2" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
-        <v>9805</v>
+        <v>45654</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>44</v>
@@ -1344,10 +1346,10 @@
         <v>71</v>
       </c>
       <c r="D2" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>85</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>84</v>
       </c>
       <c r="F2" s="15"/>
     </row>
@@ -1361,8 +1363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1413,7 +1415,7 @@
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="20">
-        <v>9805</v>
+        <v>45654</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>55</v>
@@ -1424,7 +1426,9 @@
       <c r="F2" s="21">
         <v>457657</v>
       </c>
-      <c r="G2" s="22"/>
+      <c r="G2" s="22">
+        <v>2000</v>
+      </c>
       <c r="H2" s="19"/>
       <c r="I2" s="19"/>
     </row>
